--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_20.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_20.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Tsubasa Sato</t>
+          <t>Tomoya Yamada</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
